--- a/data/trans_dic/Q17F_D_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Q17F_D_R3-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,58; 16,6</t>
+          <t>9,29; 17,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,88; 17,95</t>
+          <t>9,84; 17,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,69; 17,03</t>
+          <t>8,51; 16,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,73; 23,55</t>
+          <t>12,39; 23,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,16; 10,9</t>
+          <t>6,13; 11,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,02; 11,05</t>
+          <t>6,18; 11,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,36; 14,84</t>
+          <t>8,26; 14,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,7; 23,91</t>
+          <t>15,79; 24,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,16; 12,42</t>
+          <t>8,17; 12,41</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,28; 12,75</t>
+          <t>8,18; 12,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,12; 14,43</t>
+          <t>8,97; 14,56</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,67; 22,66</t>
+          <t>15,69; 22,17</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,43; 15,52</t>
+          <t>7,4; 14,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,9; 14,7</t>
+          <t>7,76; 14,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,28; 13,52</t>
+          <t>7,09; 12,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,69; 20,45</t>
+          <t>13,26; 20,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,8; 17,52</t>
+          <t>9,78; 17,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,2; 16,53</t>
+          <t>10,01; 16,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,81; 16,84</t>
+          <t>10,73; 16,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,03; 23,11</t>
+          <t>11,29; 22,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,86; 15,31</t>
+          <t>9,87; 15,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,8; 14,45</t>
+          <t>10,0; 14,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,93; 14,18</t>
+          <t>9,9; 14,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,16; 20,67</t>
+          <t>13,54; 21,0</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,24; 28,02</t>
+          <t>7,46; 27,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,74; 28,01</t>
+          <t>8,8; 29,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 19,41</t>
+          <t>6,54; 20,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,66; 31,53</t>
+          <t>16,66; 32,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,97; 20,44</t>
+          <t>7,66; 20,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,35; 18,29</t>
+          <t>5,84; 19,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 20,65</t>
+          <t>7,23; 19,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,84; 21,9</t>
+          <t>11,52; 21,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,51; 19,56</t>
+          <t>8,74; 20,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,82; 19,44</t>
+          <t>8,12; 18,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,43; 18,09</t>
+          <t>8,3; 17,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,01; 24,88</t>
+          <t>15,52; 24,38</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,69; 15,14</t>
+          <t>9,8; 14,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,14; 15,24</t>
+          <t>10,16; 15,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,71; 13,33</t>
+          <t>8,51; 13,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,36; 21,37</t>
+          <t>15,2; 21,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 12,85</t>
+          <t>8,83; 12,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,76; 12,44</t>
+          <t>8,69; 12,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,53; 15,01</t>
+          <t>10,54; 14,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,55; 21,17</t>
+          <t>13,77; 21,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,88; 13,09</t>
+          <t>9,76; 12,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,89; 12,99</t>
+          <t>9,83; 12,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,37; 13,42</t>
+          <t>10,4; 13,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,48; 20,32</t>
+          <t>15,35; 20,38</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable (Cuartil IV de 2023: &gt;15 días)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>38102</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>44003</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>30650</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>22353</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>41245</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>43280</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>45643</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>43105</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>79347</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>87282</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>76293</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>65458</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>27807; 51394</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>32192; 57983</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21020; 41519</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15976; 30620</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>30174; 54246</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>32610; 58838</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33322; 59694</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>34613; 53049</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>64694; 98217</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>69903; 105277</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>58292; 94681</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>54641; 77224</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>25806</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>37427</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>43883</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>58310</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>48399</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>61190</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>76632</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>89429</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>74204</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>98617</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>120515</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>147739</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>17496; 35098</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>26631; 50107</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>31852; 57936</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>46752; 73012</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>35882; 62960</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>47522; 77694</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>60664; 94359</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>54436; 109464</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>59527; 92090</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>81831; 118543</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>100446; 144239</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>113015; 175346</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10469</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12450</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13884</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>29287</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13817</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11356</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16598</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>23921</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>24286</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>23807</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>30482</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>53208</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5166; 19112</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6580; 22035</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7499; 23481</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20662; 40781</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8361; 22437</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6122; 19999</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9522; 26178</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17037; 31171</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15592; 35949</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14585; 34036</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>20455; 43851</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>42204; 66295</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>74377</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>93880</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>88417</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>109950</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>103460</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>115826</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>138873</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>156456</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>177837</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>209706</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>227291</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>266406</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>59288; 90084</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>75724; 112754</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>68982; 105671</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>92069; 130341</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>85481; 123824</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>96227; 138335</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>115919; 162795</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>116931; 182598</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>153636; 203874</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>182085; 237221</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>198685; 258719</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>223360; 296625</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>